--- a/rmse_scores.xlsx
+++ b/rmse_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Lasso</t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>svr</t>
+  </si>
+  <si>
+    <t>adaboost</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8.935747119705335</v>
+        <v>11.83170909806123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -428,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10.86205756417824</v>
+        <v>11.30746732569753</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -436,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9.973695475917889</v>
+        <v>10.88717687128923</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>8.534428310382548</v>
+        <v>10.5470743608646</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -452,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>9.048281898592156</v>
+        <v>10.73701397256298</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>9.445264672755755</v>
+        <v>11.10327106280675</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>10.59874477607422</v>
+        <v>7.795722206351805</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +485,31 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10.84634409083185</v>
+        <v>10.3782841839192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>21.96904696191038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>7.820567494217763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>10.84836181396088</v>
       </c>
     </row>
   </sheetData>
